--- a/biology/Botanique/Isoète_grêle/Isoète_grêle.xlsx
+++ b/biology/Botanique/Isoète_grêle/Isoète_grêle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_gr%C3%AAle</t>
+          <t>Isoète_grêle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isoète grêle, Isoète sétacé
 Isoetes setacea, de noms communs Isoète grêle, Isoète sétacé, est une espèce de plantes vivace de la famille des Isoetaceae et du genre Isoetes, originaire du Sud-Ouest de l'Europe et du Maroc.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_gr%C3%AAle</t>
+          <t>Isoète_grêle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-L'Isoète grêle est une plante vivace, amphibie, à bulbe bilobé, gros, dépourvu de phyllopodes au sommet, à racines glabres ; les feuilles sont longues de 15–50 cm, nombreuses, d'un vert clair, dressées, flexueuses, linéaires-sétacées, brièvement et étroitement membraneuses inférieurement, à lacunes assez grandes, munies de stomates[4].
-Appareil reproducteur
-Le voile est nul ou presque nul ; la ligule est allongée ; les macrospores sont rugueuses-farineuses, couvertes sur toutes les faces de tubercules très nombreux, très petites, tous égaux, non saillants ; les microspores sont à peine muriquées[4].
-Confusions possibles
-Selon Catalogue of Life                                   (5 décembre 2020)[5], Isoetes setacea Lam. est un synonyme ambigu de Isoetes lacustris L. ; selon l'INPN      (5 décembre 2020)[2], Isoetes delilei Rothm., 1944 est synonyme de Isoetes setacea Lam., mais selon Plants of the World online (POWO)                (5 décembre 2020)[3], les trois sont chacune une espèce différente. Isoetes setacea a aussi été considéré commune variété de Isoetes echinospora[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Isoète grêle est une plante vivace, amphibie, à bulbe bilobé, gros, dépourvu de phyllopodes au sommet, à racines glabres ; les feuilles sont longues de 15–50 cm, nombreuses, d'un vert clair, dressées, flexueuses, linéaires-sétacées, brièvement et étroitement membraneuses inférieurement, à lacunes assez grandes, munies de stomates.
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_gr%C3%AAle</t>
+          <t>Isoète_grêle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une espèce caractéristique des gazons méditerranéens aquatiques à Isoète, et une espèce indicatrice des mares temporaires méditerranéennes à Isoètes[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le voile est nul ou presque nul ; la ligule est allongée ; les macrospores sont rugueuses-farineuses, couvertes sur toutes les faces de tubercules très nombreux, très petites, tous égaux, non saillants ; les microspores sont à peine muriquées.
 </t>
         </is>
       </c>
@@ -561,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_gr%C3%AAle</t>
+          <t>Isoète_grêle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est présente en France métropolitaine, sur la Péninsule ibérique et au Maroc[6],[3].
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (5 décembre 2020), Isoetes setacea Lam. est un synonyme ambigu de Isoetes lacustris L. ; selon l'INPN      (5 décembre 2020), Isoetes delilei Rothm., 1944 est synonyme de Isoetes setacea Lam., mais selon Plants of the World online (POWO)                (5 décembre 2020), les trois sont chacune une espèce différente. Isoetes setacea a aussi été considéré commune variété de Isoetes echinospora.
 </t>
         </is>
       </c>
@@ -592,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Iso%C3%A8te_gr%C3%AAle</t>
+          <t>Isoète_grêle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,12 +632,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce caractéristique des gazons méditerranéens aquatiques à Isoète, et une espèce indicatrice des mares temporaires méditerranéennes à Isoètes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Isoète_grêle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iso%C3%A8te_gr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en France métropolitaine, sur la Péninsule ibérique et au Maroc,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Isoète_grêle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Iso%C3%A8te_gr%C3%AAle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée « espèce vulnérable » (VU) sur la Liste rouge de la flore vasculaire de France métropolitaine[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée « espèce vulnérable » (VU) sur la Liste rouge de la flore vasculaire de France métropolitaine.
 </t>
         </is>
       </c>
